--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C70A2F-E821-428D-96CE-A8D1ADB04D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7756D15C-7F06-4169-B0A6-CF4F0AE452BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -55,13 +55,6 @@
   </si>
   <si>
     <t>ClearCount</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チュートリアル２完了</t>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -122,22 +115,91 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チュートリアル3完了</t>
-    <rPh sb="8" eb="10">
+    <t>END</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StartChat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EndChat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショップチュートリアル完了</t>
+    <rPh sb="11" eb="13">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>END</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>StartChat</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EndChat</t>
+    <t>設計図チュートリアル完了</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武器チュートリアル完了</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板作る</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かまどを使う</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイショップアップロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他のユーザーいいねする</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロイヤルコイン使う</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリア１０階</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル10</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -267,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:F12" totalsRowShown="0">
+  <autoFilter ref="A1:F12" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{17D69587-7412-4025-81E0-58131A24596B}" name="ID"/>
     <tableColumn id="2" xr3:uid="{1A058262-061F-41B5-9816-53BC9802BF90}" name="Type"/>
@@ -578,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6AC30-6962-4B6B-B6FE-5C6ED0DE8A9F}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -605,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -656,6 +718,166 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10001</v>
+      </c>
+      <c r="E4">
+        <v>104</v>
+      </c>
+      <c r="F4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10001</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10001</v>
+      </c>
+      <c r="E6">
+        <v>108</v>
+      </c>
+      <c r="F6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10001</v>
+      </c>
+      <c r="E7">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10001</v>
+      </c>
+      <c r="E8">
+        <v>112</v>
+      </c>
+      <c r="F8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10001</v>
+      </c>
+      <c r="E9">
+        <v>114</v>
+      </c>
+      <c r="F9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10001</v>
+      </c>
+      <c r="E10">
+        <v>116</v>
+      </c>
+      <c r="F10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10001</v>
+      </c>
+      <c r="E11">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
@@ -684,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -694,7 +916,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -704,7 +926,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -714,7 +936,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -724,7 +946,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -734,7 +956,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -745,10 +967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CAB5C1-9605-42AF-9D50-D89A645D57DA}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -761,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -769,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -777,7 +999,71 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7756D15C-7F06-4169-B0A6-CF4F0AE452BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FC8A8-8962-4AA3-B9D0-038A349FE448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -678,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -698,13 +698,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10001</v>
+        <v>2002</v>
       </c>
       <c r="E3">
         <v>102</v>
@@ -718,13 +718,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="E4">
         <v>104</v>
@@ -738,13 +738,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10001</v>
+        <v>2004</v>
       </c>
       <c r="E5">
         <v>106</v>
@@ -758,13 +758,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>10001</v>
+        <v>2005</v>
       </c>
       <c r="E6">
         <v>108</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>10001</v>
+        <v>2006</v>
       </c>
       <c r="E7">
         <v>110</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10001</v>
+        <v>2007</v>
       </c>
       <c r="E8">
         <v>112</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>10001</v>
+        <v>2008</v>
       </c>
       <c r="E9">
         <v>114</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>10001</v>
+        <v>2009</v>
       </c>
       <c r="E10">
         <v>116</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>10001</v>
+        <v>2010</v>
       </c>
       <c r="E11">
         <v>118</v>
@@ -970,7 +970,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FC8A8-8962-4AA3-B9D0-038A349FE448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE511B-FD5C-4D0D-8FE9-0E03E8DD501D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -200,6 +200,16 @@
   </si>
   <si>
     <t>レベル10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険チュートリアルが完了</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -329,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:F12" totalsRowShown="0">
-  <autoFilter ref="A1:F12" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{17D69587-7412-4025-81E0-58131A24596B}" name="ID"/>
     <tableColumn id="2" xr3:uid="{1A058262-061F-41B5-9816-53BC9802BF90}" name="Type"/>
@@ -640,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6AC30-6962-4B6B-B6FE-5C6ED0DE8A9F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -698,19 +708,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F3">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -718,19 +728,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -738,19 +748,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -758,19 +768,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -778,19 +788,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E7">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -798,19 +808,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -818,19 +828,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -838,19 +848,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E10">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -858,19 +868,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -878,6 +888,26 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+      <c r="E12">
+        <v>118</v>
+      </c>
+      <c r="F12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
     </row>
@@ -967,10 +997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CAB5C1-9605-42AF-9D50-D89A645D57DA}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1066,6 +1096,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE511B-FD5C-4D0D-8FE9-0E03E8DD501D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FA100-3C20-42A5-8AE4-D0D9A5734B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -210,6 +210,10 @@
     <rPh sb="10" eb="12">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Next</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -339,11 +343,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{17D69587-7412-4025-81E0-58131A24596B}" name="ID"/>
     <tableColumn id="2" xr3:uid="{1A058262-061F-41B5-9816-53BC9802BF90}" name="Type"/>
+    <tableColumn id="7" xr3:uid="{2404D037-8E09-4091-828B-73865790C190}" name="Next"/>
     <tableColumn id="5" xr3:uid="{92FD2C88-16DD-4AB2-B8D7-ED5528E95BB7}" name="ClearCount"/>
     <tableColumn id="3" xr3:uid="{B35BFDB7-C306-4322-A85F-DE02FECAF95C}" name="Bonus"/>
     <tableColumn id="4" xr3:uid="{851ECE85-70F5-4B77-AF6D-DB36133CE5CC}" name="StartChat"/>
@@ -650,20 +655,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6AC30-6962-4B6B-B6FE-5C6ED0DE8A9F}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,19 +677,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -691,224 +700,257 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>2002</v>
       </c>
       <c r="F3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>2003</v>
       </c>
       <c r="F4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="G4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2003</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>104</v>
+        <v>2004</v>
       </c>
       <c r="F5">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+      <c r="G5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>2004</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>106</v>
+        <v>2005</v>
       </c>
       <c r="F6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>2005</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>108</v>
+        <v>2006</v>
       </c>
       <c r="F7">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="G7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>110</v>
+        <v>2007</v>
       </c>
       <c r="F8">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+      <c r="G8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>112</v>
+        <v>2008</v>
       </c>
       <c r="F9">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+      <c r="G9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>114</v>
+        <v>2009</v>
       </c>
       <c r="F10">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="G10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>116</v>
+        <v>2010</v>
       </c>
       <c r="F11">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+      <c r="G11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2010</v>
-      </c>
-      <c r="E12">
-        <v>118</v>
-      </c>
-      <c r="F12">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2011</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FA100-3C20-42A5-8AE4-D0D9A5734B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B5CCA-D878-45E5-BCBD-F0918A08C0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -214,6 +214,17 @@
   </si>
   <si>
     <t>Next</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガチャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次のタスクID</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -343,8 +354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:G14" totalsRowShown="0">
+  <autoFilter ref="A1:G14" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{17D69587-7412-4025-81E0-58131A24596B}" name="ID"/>
     <tableColumn id="2" xr3:uid="{1A058262-061F-41B5-9816-53BC9802BF90}" name="Type"/>
@@ -655,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6AC30-6962-4B6B-B6FE-5C6ED0DE8A9F}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -927,7 +938,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2012</v>
+      </c>
+      <c r="F12">
+        <v>122</v>
+      </c>
+      <c r="G12">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -951,6 +977,14 @@
       </c>
       <c r="G13">
         <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -965,10 +999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A970A8B8-1085-48DC-AD92-E0E8378EF369}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1003,31 +1037,41 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
+      <c r="A11" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1039,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CAB5C1-9605-42AF-9D50-D89A645D57DA}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1146,6 +1190,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B5CCA-D878-45E5-BCBD-F0918A08C0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA691DCF-CE0E-49EE-800F-4956FADC4287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -224,6 +222,16 @@
     <t>次のタスクID</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険完了</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -669,7 +677,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -708,22 +716,22 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -961,22 +969,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2011</v>
-      </c>
-      <c r="F13">
-        <v>120</v>
-      </c>
-      <c r="G13">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1083,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CAB5C1-9605-42AF-9D50-D89A645D57DA}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1198,6 +1191,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA691DCF-CE0E-49EE-800F-4956FADC4287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EB89C4-5B30-4B33-883B-2DBA998B0C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -331,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +342,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -362,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:G14" totalsRowShown="0">
-  <autoFilter ref="A1:G14" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}" name="テーブル1" displayName="テーブル1" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8" xr:uid="{DBEBCEFC-E8E1-4D88-A5CB-DDE3AE068471}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{17D69587-7412-4025-81E0-58131A24596B}" name="ID"/>
     <tableColumn id="2" xr3:uid="{1A058262-061F-41B5-9816-53BC9802BF90}" name="Type"/>
@@ -674,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6AC30-6962-4B6B-B6FE-5C6ED0DE8A9F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -718,8 +721,8 @@
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" s="4">
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -736,247 +739,109 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="F5">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G5">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="F6">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G6">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2006</v>
-      </c>
-      <c r="F7">
-        <v>110</v>
-      </c>
-      <c r="G7">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2007</v>
-      </c>
-      <c r="F8">
-        <v>112</v>
-      </c>
-      <c r="G8">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2008</v>
-      </c>
-      <c r="F9">
-        <v>114</v>
-      </c>
-      <c r="G9">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2009</v>
-      </c>
-      <c r="F10">
-        <v>116</v>
-      </c>
-      <c r="G10">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2010</v>
-      </c>
-      <c r="F11">
-        <v>118</v>
-      </c>
-      <c r="G11">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2012</v>
-      </c>
-      <c r="F12">
-        <v>122</v>
-      </c>
-      <c r="G12">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/MainTask.xlsx
+++ b/Config/Excel/MainTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EB89C4-5B30-4B33-883B-2DBA998B0C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37AC63D-DEC6-4ADB-A1B4-90E5A8FB44C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F775C30B-F6A1-4A5C-BDFD-795D8426BC4F}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>2004</v>
